--- a/LimitProbing/PressureTest-20170620-EMR/rst/D1-Metrics.xlsx
+++ b/LimitProbing/PressureTest-20170620-EMR/rst/D1-Metrics.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="13935" windowHeight="4860" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="13935" windowHeight="4860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="网络传输" sheetId="1" r:id="rId1"/>
     <sheet name="样本生成" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="result" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="95">
   <si>
     <t>703.4 G</t>
   </si>
@@ -192,10 +192,6 @@
     <t>281G</t>
   </si>
   <si>
-    <t>1小时8分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90G（实际使用98G）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -300,15 +296,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1小时6分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>66分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>96G（实际使用130G）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45分钟27秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>44分钟55秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>64G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时3分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>63分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时8分13秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时13分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMR集群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>68分钟、45分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时8分钟25秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1小时6分钟4秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90G内存生成样本，在D1上提交两次，运行时间有较大浮动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~202分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,12 +412,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -362,7 +440,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -389,6 +467,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -454,24 +541,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="152223744"/>
-        <c:axId val="152225280"/>
+        <c:axId val="108515712"/>
+        <c:axId val="108517248"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="152223744"/>
+        <c:axId val="108515712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152225280"/>
+        <c:crossAx val="108517248"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="152225280"/>
+        <c:axId val="108517248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -479,7 +566,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="152223744"/>
+        <c:crossAx val="108515712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -491,7 +578,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -849,7 +936,7 @@
         <v>24</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>39</v>
@@ -861,25 +948,25 @@
         <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="O1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -1207,7 +1294,7 @@
     </row>
     <row r="8" spans="1:16" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B8" s="5">
         <f>SUM(B2:B7)</f>
@@ -1223,12 +1310,12 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="1">
         <f>SUM(L2:L7)</f>
@@ -1241,7 +1328,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1291,24 +1378,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="11" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="21.625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="17.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="12" width="21.625" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1332,7 +1411,7 @@
         <v>32</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>33</v>
@@ -1366,11 +1445,11 @@
       <c r="E2" s="4">
         <v>0.9477430555555556</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>47</v>
+      <c r="F2" s="7" t="s">
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H2" s="3">
         <v>8</v>
@@ -1385,10 +1464,10 @@
         <v>43</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" hidden="1">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1408,7 +1487,7 @@
         <v>41</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H3" s="3">
         <v>40</v>
@@ -1443,10 +1522,10 @@
         <v>0.63533564814814814</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>32</v>
@@ -1461,7 +1540,7 @@
         <v>43</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="7" customFormat="1">
@@ -1481,10 +1560,10 @@
         <v>0.69027777777777777</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>74</v>
+        <v>92</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -1496,10 +1575,10 @@
         <v>100</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="7" customFormat="1">
@@ -1512,8 +1591,18 @@
       <c r="C6" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4">
+        <v>0.69609953703703698</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.72729166666666656</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>65</v>
+      </c>
       <c r="H6" s="7">
         <v>32</v>
       </c>
@@ -1524,192 +1613,319 @@
         <v>128</v>
       </c>
       <c r="K6" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="7" customFormat="1">
+      <c r="A7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.77682870370370372</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.82060185185185175</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="7">
+        <v>32</v>
+      </c>
+      <c r="I7" s="7">
+        <v>4</v>
+      </c>
+      <c r="J7" s="7">
+        <v>128</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="7" customFormat="1">
+      <c r="A8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="4">
+        <v>0.78300925925925924</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.83627314814814813</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="7">
+        <v>20</v>
+      </c>
+      <c r="I8" s="7">
+        <v>4</v>
+      </c>
+      <c r="J8" s="7">
+        <v>128</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="8" customFormat="1">
+      <c r="A9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.8361574074074074</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.84805555555555545</v>
+      </c>
+      <c r="F9" s="8">
+        <f>17/202</f>
+        <v>8.4158415841584164E-2</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H9" s="8">
+        <v>5</v>
+      </c>
+      <c r="I9" s="8">
+        <v>2</v>
+      </c>
+      <c r="J9" s="8">
+        <v>10</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="7" customFormat="1">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:12" s="7" customFormat="1">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:12" s="7" customFormat="1">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" s="7" customFormat="1">
+      <c r="A19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" s="7">
+        <v>32</v>
+      </c>
+      <c r="I19" s="7">
+        <v>4</v>
+      </c>
+      <c r="J19" s="7">
+        <v>128</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" s="7" customFormat="1">
+      <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="7">
+        <v>32</v>
+      </c>
+      <c r="I20" s="7">
+        <v>4</v>
+      </c>
+      <c r="J20" s="7">
+        <v>128</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="L6" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="8" t="s">
+    </row>
+    <row r="21" spans="1:12" s="7" customFormat="1">
+      <c r="A21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:12" s="7" customFormat="1">
-      <c r="A13" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H21" s="7">
+        <v>32</v>
+      </c>
+      <c r="I21" s="7">
+        <v>4</v>
+      </c>
+      <c r="J21" s="7">
+        <v>128</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="H13" s="7">
-        <v>32</v>
-      </c>
-      <c r="I13" s="7">
-        <v>4</v>
-      </c>
-      <c r="J13" s="7">
-        <v>128</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="7" customFormat="1">
-      <c r="A14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H14" s="7">
-        <v>32</v>
-      </c>
-      <c r="I14" s="7">
-        <v>4</v>
-      </c>
-      <c r="J14" s="7">
-        <v>128</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="7" customFormat="1">
-      <c r="A15" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H15" s="7">
-        <v>32</v>
-      </c>
-      <c r="I15" s="7">
-        <v>4</v>
-      </c>
-      <c r="J15" s="7">
-        <v>128</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A7:L10"/>
-    <mergeCell ref="A12:L12"/>
+    <mergeCell ref="A13:L16"/>
+    <mergeCell ref="A18:L18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1718,12 +1934,66 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="15.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="74.25" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A8:C8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
